--- a/Stocks/IVU.xlsx
+++ b/Stocks/IVU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="568" documentId="8_{E0838E19-727E-413A-9D31-D37F268B1644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71B02E33-8CAE-446C-8694-919E8AEA9353}"/>
+  <xr:revisionPtr revIDLastSave="575" documentId="8_{E0838E19-727E-413A-9D31-D37F268B1644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECCC50E2-8618-4440-8087-AF7B132F179A}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{A9FD44D2-7391-4648-9DA0-F9F06DE94BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A9FD44D2-7391-4648-9DA0-F9F06DE94BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>Price</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>EV/EBITDA</t>
+  </si>
+  <si>
+    <t>Net Flow</t>
+  </si>
+  <si>
+    <t>CapeX</t>
   </si>
 </sst>
 </file>
@@ -227,9 +233,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,12 +244,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -268,16 +279,16 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -293,6 +304,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -615,72 +630,75 @@
   <dimension ref="K3:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K3" t="s">
+    <row r="3" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>21.8</v>
       </c>
     </row>
-    <row r="4" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K4" t="s">
+    <row r="4" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>17.271000000000001</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K5" t="s">
+    <row r="5" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <f>+L4*L3</f>
         <v>376.50780000000003</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K6" t="s">
+    <row r="6" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>23.187999999999999</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K7" t="s">
+    <row r="7" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <v>1.6890000000000001</v>
       </c>
     </row>
-    <row r="8" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K8" t="s">
+    <row r="8" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <f>+L5-L6+L7</f>
         <v>355.00880000000006</v>
       </c>
     </row>
-    <row r="9" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="L9" t="s">
+    <row r="9" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="L9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -694,2586 +712,2588 @@
   <dimension ref="A2:BM65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V20" sqref="V20"/>
+      <selection pane="bottomRight" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="2">
         <v>2021</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="2">
         <v>2022</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="2">
         <v>2023</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="2">
         <f>+T2+1</f>
         <v>2024</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="2">
         <f t="shared" ref="V2:AD2" si="0">+U2+1</f>
         <v>2025</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC2" s="2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1"/>
-      <c r="AZ2" s="1"/>
-      <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-      <c r="BG2" s="1"/>
-      <c r="BH2" s="1"/>
-      <c r="BI2" s="1"/>
-      <c r="BJ2" s="1"/>
-      <c r="BK2" s="1"/>
-      <c r="BL2" s="1"/>
-      <c r="BM2" s="1"/>
-    </row>
-    <row r="3" spans="1:65" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+    </row>
+    <row r="3" spans="1:65" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>22.731999999999999</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>26.352</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>26.626999999999999</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <f>122.492-E3-D3-C3</f>
         <v>46.781000000000006</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <v>26.829000000000001</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <v>27.902000000000001</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="4">
         <v>31.274999999999999</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="4">
         <f>133.671-I3-H3-G3</f>
         <v>47.664999999999985</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="4">
         <v>30.809000000000001</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="5">
         <v>102.884</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="5">
         <v>113.23399999999999</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="5">
         <f>+SUM(C3:F3)</f>
         <v>122.492</v>
       </c>
-      <c r="U3" s="9">
+      <c r="U3" s="5">
         <f>+SUM(G3:J3)</f>
         <v>133.67099999999999</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="5">
         <f>+U3*1.1</f>
         <v>147.03810000000001</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="5">
         <f t="shared" ref="W3" si="1">+V3*1.1</f>
         <v>161.74191000000002</v>
       </c>
-      <c r="X3" s="9">
-        <f t="shared" ref="V3:AD3" si="2">+W3*1.09</f>
+      <c r="X3" s="5">
+        <f t="shared" ref="X3:Z3" si="2">+W3*1.09</f>
         <v>176.29868190000002</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="Y3" s="5">
         <f t="shared" si="2"/>
         <v>192.16556327100002</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="5">
         <f t="shared" si="2"/>
         <v>209.46046396539003</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AA3" s="5">
         <f>+Z3*1.08</f>
         <v>226.21730108262125</v>
       </c>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="9"/>
-      <c r="AZ3" s="9"/>
-      <c r="BA3" s="9"/>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="9"/>
-      <c r="BD3" s="9"/>
-      <c r="BE3" s="9"/>
-      <c r="BF3" s="9"/>
-      <c r="BG3" s="9"/>
-      <c r="BH3" s="9"/>
-      <c r="BI3" s="9"/>
-      <c r="BJ3" s="9"/>
-      <c r="BK3" s="9"/>
-      <c r="BL3" s="9"/>
-      <c r="BM3" s="9"/>
-    </row>
-    <row r="4" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4" t="s">
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5"/>
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+    </row>
+    <row r="4" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>0.65100000000000002</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>0.18099999999999999</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <v>0.185</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="6">
         <f>0.751-E4-D4-C4</f>
         <v>-0.26599999999999996</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="6">
         <v>0.182</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <v>1.02</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="6">
         <v>0.29299999999999998</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="6">
         <f>1.722-I4-H4-G4</f>
         <v>0.22700000000000004</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="6">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="2">
         <v>1.33</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="2">
         <v>1.1970000000000001</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="2">
         <f>+SUM(C4:F4)</f>
         <v>0.75100000000000011</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="2">
         <f>+SUM(G4:J4)</f>
         <v>1.722</v>
       </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
-      <c r="BC4" s="1"/>
-      <c r="BD4" s="1"/>
-      <c r="BE4" s="1"/>
-      <c r="BF4" s="1"/>
-      <c r="BG4" s="1"/>
-      <c r="BH4" s="1"/>
-      <c r="BI4" s="1"/>
-      <c r="BJ4" s="1"/>
-      <c r="BK4" s="1"/>
-      <c r="BL4" s="1"/>
-      <c r="BM4" s="1"/>
-    </row>
-    <row r="5" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5" t="s">
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+    </row>
+    <row r="5" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>-3.5169999999999999</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <v>-5.1219999999999999</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="6">
         <v>-4.1509999999999998</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="6">
         <f>-22.113-E5-D5-C5</f>
         <v>-9.3230000000000004</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="6">
         <v>-5.0030000000000001</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="6">
         <v>-4.5119999999999996</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="6">
         <v>-4.8520000000000003</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="6">
         <f>-22.003-I5-H5-G5</f>
         <v>-7.6359999999999992</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="6">
         <v>-6.141</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="2">
         <v>-28.434999999999999</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="2">
         <v>-23.861999999999998</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="2">
         <f>+SUM(C5:F5)</f>
         <v>-22.113</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="2">
         <f>+SUM(G5:J5)</f>
         <v>-22.003</v>
       </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1"/>
-      <c r="BF5" s="1"/>
-      <c r="BG5" s="1"/>
-      <c r="BH5" s="1"/>
-      <c r="BI5" s="1"/>
-      <c r="BJ5" s="1"/>
-      <c r="BK5" s="1"/>
-      <c r="BL5" s="1"/>
-      <c r="BM5" s="1"/>
-    </row>
-    <row r="6" spans="1:65" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+    </row>
+    <row r="6" spans="1:65" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="7">
-        <f>+C3+C4+C5</f>
+      <c r="C6" s="4">
+        <f t="shared" ref="C6:K6" si="3">+C3+C4+C5</f>
         <v>19.866</v>
       </c>
-      <c r="D6" s="7">
-        <f>+D3+D4+D5</f>
+      <c r="D6" s="4">
+        <f t="shared" si="3"/>
         <v>21.411000000000001</v>
       </c>
-      <c r="E6" s="7">
-        <f>+E3+E4+E5</f>
+      <c r="E6" s="4">
+        <f t="shared" si="3"/>
         <v>22.660999999999998</v>
       </c>
-      <c r="F6" s="7">
-        <f>+F3+F4+F5</f>
+      <c r="F6" s="4">
+        <f t="shared" si="3"/>
         <v>37.192000000000007</v>
       </c>
-      <c r="G6" s="7">
-        <f>+G3+G4+G5</f>
+      <c r="G6" s="4">
+        <f t="shared" si="3"/>
         <v>22.007999999999999</v>
       </c>
-      <c r="H6" s="7">
-        <f>+H3+H4+H5</f>
+      <c r="H6" s="4">
+        <f t="shared" si="3"/>
         <v>24.41</v>
       </c>
-      <c r="I6" s="7">
-        <f>+I3+I4+I5</f>
+      <c r="I6" s="4">
+        <f t="shared" si="3"/>
         <v>26.715999999999998</v>
       </c>
-      <c r="J6" s="7">
-        <f>+J3+J4+J5</f>
+      <c r="J6" s="4">
+        <f t="shared" si="3"/>
         <v>40.255999999999986</v>
       </c>
-      <c r="K6" s="7">
-        <f>+K3+K4+K5</f>
+      <c r="K6" s="4">
+        <f t="shared" si="3"/>
         <v>24.728999999999999</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="5">
         <f>+R3+R4+R5</f>
         <v>75.778999999999996</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="5">
         <f>+S3+S4+S5</f>
         <v>90.569000000000003</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="5">
         <f>+T3+T4+T5</f>
         <v>101.13000000000001</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="5">
         <f>+U3+U4+U5</f>
         <v>113.39</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="5">
         <f>+V3*0.85</f>
         <v>124.98238500000001</v>
       </c>
-      <c r="W6" s="9">
-        <f t="shared" ref="W6:AA6" si="3">+W3*0.85</f>
+      <c r="W6" s="5">
+        <f t="shared" ref="W6:AA6" si="4">+W3*0.85</f>
         <v>137.48062350000001</v>
       </c>
-      <c r="X6" s="9">
-        <f t="shared" si="3"/>
+      <c r="X6" s="5">
+        <f t="shared" si="4"/>
         <v>149.85387961500001</v>
       </c>
-      <c r="Y6" s="9">
-        <f t="shared" si="3"/>
+      <c r="Y6" s="5">
+        <f t="shared" si="4"/>
         <v>163.34072878035002</v>
       </c>
-      <c r="Z6" s="9">
-        <f t="shared" si="3"/>
+      <c r="Z6" s="5">
+        <f t="shared" si="4"/>
         <v>178.04139437058151</v>
       </c>
-      <c r="AA6" s="9">
-        <f t="shared" si="3"/>
+      <c r="AA6" s="5">
+        <f t="shared" si="4"/>
         <v>192.28470592022805</v>
       </c>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="9"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9"/>
-      <c r="BF6" s="9"/>
-      <c r="BG6" s="9"/>
-      <c r="BH6" s="9"/>
-      <c r="BI6" s="9"/>
-      <c r="BJ6" s="9"/>
-      <c r="BK6" s="9"/>
-      <c r="BL6" s="9"/>
-      <c r="BM6" s="9"/>
-    </row>
-    <row r="7" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7" t="s">
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="5"/>
+      <c r="BE6" s="5"/>
+      <c r="BF6" s="5"/>
+      <c r="BG6" s="5"/>
+      <c r="BH6" s="5"/>
+      <c r="BI6" s="5"/>
+      <c r="BJ6" s="5"/>
+      <c r="BK6" s="5"/>
+      <c r="BL6" s="5"/>
+      <c r="BM6" s="5"/>
+    </row>
+    <row r="7" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>-16.062000000000001</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6">
         <v>-16.472999999999999</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="6">
         <v>-16.149999999999999</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="6">
         <f>-67.611-E7-D7-C7</f>
         <v>-18.926000000000005</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="6">
         <f>+-17.549</f>
         <v>-17.548999999999999</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="6">
         <v>-19.170999999999999</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="6">
         <v>-18.558</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="6">
         <f>-76.469-I7-H7-G7</f>
         <v>-21.190999999999995</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="6">
         <v>-19.446000000000002</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="2">
         <v>-49.814999999999998</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="2">
         <v>-60.277999999999999</v>
       </c>
-      <c r="T7" s="10">
-        <f t="shared" ref="T7:T8" si="4">+SUM(C7:F7)</f>
+      <c r="T7" s="2">
+        <f t="shared" ref="T7:T8" si="5">+SUM(C7:F7)</f>
         <v>-67.611000000000004</v>
       </c>
-      <c r="U7" s="10">
-        <f t="shared" ref="U7:U8" si="5">+SUM(G7:J7)</f>
+      <c r="U7" s="2">
+        <f t="shared" ref="U7:U8" si="6">+SUM(G7:J7)</f>
         <v>-76.468999999999994</v>
       </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
-      <c r="AU7" s="1"/>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
-      <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
-      <c r="BG7" s="1"/>
-      <c r="BH7" s="1"/>
-      <c r="BI7" s="1"/>
-      <c r="BJ7" s="1"/>
-      <c r="BK7" s="1"/>
-      <c r="BL7" s="1"/>
-      <c r="BM7" s="1"/>
-    </row>
-    <row r="8" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8" t="s">
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="2"/>
+      <c r="BL7" s="2"/>
+      <c r="BM7" s="2"/>
+    </row>
+    <row r="8" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>-3.09</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6">
         <v>-2.7789999999999999</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="6">
         <v>-3.0019999999999998</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="6">
         <f>-13.213-E8-D8-C8</f>
         <v>-4.3419999999999987</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="6">
         <v>-3.476</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="6">
         <v>-3.6360000000000001</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="6">
         <v>-3.2989999999999999</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="6">
         <f>-15.234-I8-H8-G8</f>
         <v>-4.8229999999999995</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="6">
         <v>-3.899</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="2">
         <v>-9.5169999999999995</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="2">
         <v>-11.596</v>
       </c>
-      <c r="T8" s="10">
-        <f t="shared" si="4"/>
+      <c r="T8" s="2">
+        <f t="shared" si="5"/>
         <v>-13.212999999999997</v>
       </c>
-      <c r="U8" s="10">
-        <f t="shared" si="5"/>
+      <c r="U8" s="2">
+        <f t="shared" si="6"/>
         <v>-15.233999999999998</v>
       </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="1"/>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1"/>
-      <c r="AX8" s="1"/>
-      <c r="AY8" s="1"/>
-      <c r="AZ8" s="1"/>
-      <c r="BA8" s="1"/>
-      <c r="BB8" s="1"/>
-      <c r="BC8" s="1"/>
-      <c r="BD8" s="1"/>
-      <c r="BE8" s="1"/>
-      <c r="BF8" s="1"/>
-      <c r="BG8" s="1"/>
-      <c r="BH8" s="1"/>
-      <c r="BI8" s="1"/>
-      <c r="BJ8" s="1"/>
-      <c r="BK8" s="1"/>
-      <c r="BL8" s="1"/>
-      <c r="BM8" s="1"/>
-    </row>
-    <row r="9" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9" t="s">
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="2"/>
+      <c r="BL8" s="2"/>
+      <c r="BM8" s="2"/>
+    </row>
+    <row r="9" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <f>+C7+C8</f>
         <v>-19.152000000000001</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" ref="D9:K9" si="6">+D7+D8</f>
+      <c r="D9" s="6">
+        <f t="shared" ref="D9:K9" si="7">+D7+D8</f>
         <v>-19.251999999999999</v>
       </c>
-      <c r="E9" s="2">
-        <f t="shared" si="6"/>
+      <c r="E9" s="6">
+        <f t="shared" si="7"/>
         <v>-19.151999999999997</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="6"/>
+      <c r="F9" s="6">
+        <f t="shared" si="7"/>
         <v>-23.268000000000004</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" si="6"/>
+      <c r="G9" s="6">
+        <f t="shared" si="7"/>
         <v>-21.024999999999999</v>
       </c>
-      <c r="H9" s="2">
-        <f t="shared" si="6"/>
+      <c r="H9" s="6">
+        <f t="shared" si="7"/>
         <v>-22.806999999999999</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" si="6"/>
+      <c r="I9" s="6">
+        <f t="shared" si="7"/>
         <v>-21.856999999999999</v>
       </c>
-      <c r="J9" s="2">
-        <f t="shared" si="6"/>
+      <c r="J9" s="6">
+        <f t="shared" si="7"/>
         <v>-26.013999999999996</v>
       </c>
-      <c r="K9" s="2">
-        <f t="shared" si="6"/>
+      <c r="K9" s="6">
+        <f t="shared" si="7"/>
         <v>-23.345000000000002</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="2">
         <f>+R7+R8</f>
         <v>-59.331999999999994</v>
       </c>
-      <c r="S9" s="1">
-        <f t="shared" ref="S9:U9" si="7">+S7+S8</f>
+      <c r="S9" s="2">
+        <f t="shared" ref="S9:U9" si="8">+S7+S8</f>
         <v>-71.873999999999995</v>
       </c>
-      <c r="T9" s="1">
-        <f t="shared" si="7"/>
+      <c r="T9" s="2">
+        <f t="shared" si="8"/>
         <v>-80.823999999999998</v>
       </c>
-      <c r="U9" s="1">
-        <f t="shared" si="7"/>
+      <c r="U9" s="2">
+        <f t="shared" si="8"/>
         <v>-91.702999999999989</v>
       </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
-      <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
-      <c r="BE9" s="1"/>
-      <c r="BF9" s="1"/>
-      <c r="BG9" s="1"/>
-      <c r="BH9" s="1"/>
-      <c r="BI9" s="1"/>
-      <c r="BJ9" s="1"/>
-      <c r="BK9" s="1"/>
-      <c r="BL9" s="1"/>
-      <c r="BM9" s="1"/>
-    </row>
-    <row r="10" spans="1:65" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="2"/>
+      <c r="BM9" s="2"/>
+    </row>
+    <row r="10" spans="1:65" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="7">
-        <f>+C6+C9</f>
+      <c r="C10" s="4">
+        <f t="shared" ref="C10:K10" si="9">+C6+C9</f>
         <v>0.71399999999999864</v>
       </c>
-      <c r="D10" s="7">
-        <f>+D6+D9</f>
+      <c r="D10" s="4">
+        <f t="shared" si="9"/>
         <v>2.1590000000000025</v>
       </c>
-      <c r="E10" s="7">
-        <f>+E6+E9</f>
+      <c r="E10" s="4">
+        <f t="shared" si="9"/>
         <v>3.5090000000000003</v>
       </c>
-      <c r="F10" s="7">
-        <f>+F6+F9</f>
+      <c r="F10" s="4">
+        <f t="shared" si="9"/>
         <v>13.924000000000003</v>
       </c>
-      <c r="G10" s="7">
-        <f>+G6+G9</f>
+      <c r="G10" s="4">
+        <f t="shared" si="9"/>
         <v>0.98300000000000054</v>
       </c>
-      <c r="H10" s="7">
-        <f>+H6+H9</f>
+      <c r="H10" s="4">
+        <f t="shared" si="9"/>
         <v>1.6030000000000015</v>
       </c>
-      <c r="I10" s="7">
-        <f>+I6+I9</f>
+      <c r="I10" s="4">
+        <f t="shared" si="9"/>
         <v>4.8589999999999982</v>
       </c>
-      <c r="J10" s="7">
-        <f>+J6+J9</f>
+      <c r="J10" s="4">
+        <f t="shared" si="9"/>
         <v>14.24199999999999</v>
       </c>
-      <c r="K10" s="7">
-        <f>+K6+K9</f>
+      <c r="K10" s="4">
+        <f t="shared" si="9"/>
         <v>1.3839999999999968</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="5">
         <f>+R6+R9</f>
         <v>16.447000000000003</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="5">
         <f>+S6+S9</f>
         <v>18.695000000000007</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="5">
         <f>+T6+T9</f>
         <v>20.306000000000012</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="5">
         <f>+U6+U9</f>
         <v>21.687000000000012</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="5">
         <f>+V3*0.16</f>
         <v>23.526096000000003</v>
       </c>
-      <c r="W10" s="9">
-        <f t="shared" ref="W10:AA10" si="8">+W3*0.16</f>
+      <c r="W10" s="5">
+        <f t="shared" ref="W10:AA10" si="10">+W3*0.16</f>
         <v>25.878705600000004</v>
       </c>
-      <c r="X10" s="9">
-        <f t="shared" si="8"/>
+      <c r="X10" s="5">
+        <f t="shared" si="10"/>
         <v>28.207789104000003</v>
       </c>
-      <c r="Y10" s="9">
-        <f t="shared" si="8"/>
+      <c r="Y10" s="5">
+        <f t="shared" si="10"/>
         <v>30.746490123360005</v>
       </c>
-      <c r="Z10" s="9">
-        <f t="shared" si="8"/>
+      <c r="Z10" s="5">
+        <f t="shared" si="10"/>
         <v>33.513674234462407</v>
       </c>
-      <c r="AA10" s="9">
-        <f t="shared" si="8"/>
+      <c r="AA10" s="5">
+        <f t="shared" si="10"/>
         <v>36.194768173219401</v>
       </c>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="9"/>
-      <c r="AT10" s="9"/>
-      <c r="AU10" s="9"/>
-      <c r="AV10" s="9"/>
-      <c r="AW10" s="9"/>
-      <c r="AX10" s="9"/>
-      <c r="AY10" s="9"/>
-      <c r="AZ10" s="9"/>
-      <c r="BA10" s="9"/>
-      <c r="BB10" s="9"/>
-      <c r="BC10" s="9"/>
-      <c r="BD10" s="9"/>
-      <c r="BE10" s="9"/>
-      <c r="BF10" s="9"/>
-      <c r="BG10" s="9"/>
-      <c r="BH10" s="9"/>
-      <c r="BI10" s="9"/>
-      <c r="BJ10" s="9"/>
-      <c r="BK10" s="9"/>
-      <c r="BL10" s="9"/>
-      <c r="BM10" s="9"/>
-    </row>
-    <row r="11" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11" t="s">
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="5"/>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="5"/>
+      <c r="BD10" s="5"/>
+      <c r="BE10" s="5"/>
+      <c r="BF10" s="5"/>
+      <c r="BG10" s="5"/>
+      <c r="BH10" s="5"/>
+      <c r="BI10" s="5"/>
+      <c r="BJ10" s="5"/>
+      <c r="BK10" s="5"/>
+      <c r="BL10" s="5"/>
+      <c r="BM10" s="5"/>
+    </row>
+    <row r="11" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <f>0.155-0.079</f>
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="6">
         <f>0.208-0.078</f>
         <v>0.13</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="6">
         <f>0.278-0.071</f>
         <v>0.20700000000000002</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="6">
         <f>0.996-0.533-E11-D11-C11</f>
         <v>4.9999999999999947E-2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="6">
         <f>0.341-0.181</f>
         <v>0.16000000000000003</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="6">
         <f>0.363-0.185</f>
         <v>0.17799999999999999</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="6">
         <f>0.349-0.189</f>
         <v>0.15999999999999998</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="6">
         <f>1.283-0.833-I11-H11-G11</f>
         <v>-4.8000000000000043E-2</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="6">
         <f>0.26-0.223</f>
         <v>3.7000000000000005E-2</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="2">
         <v>-0.35699999999999998</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="2">
         <f>0.106-0.285</f>
         <v>-0.17899999999999999</v>
       </c>
-      <c r="T11" s="10">
-        <f t="shared" ref="T11:T13" si="9">+SUM(C11:F11)</f>
+      <c r="T11" s="2">
+        <f t="shared" ref="T11:T13" si="11">+SUM(C11:F11)</f>
         <v>0.46299999999999997</v>
       </c>
-      <c r="U11" s="10">
+      <c r="U11" s="2">
         <f>+SUM(G11:J11)</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="2">
         <f>+U28*0.04</f>
         <v>0.77804000000000006</v>
       </c>
-      <c r="W11" s="1">
-        <f t="shared" ref="W11:AD11" si="10">+V28*0.04</f>
+      <c r="W11" s="2">
+        <f t="shared" ref="W11:AA11" si="12">+V28*0.04</f>
         <v>1.4585558080000001</v>
       </c>
-      <c r="X11" s="1">
-        <f t="shared" si="10"/>
+      <c r="X11" s="2">
+        <f t="shared" si="12"/>
         <v>2.2239991274240003</v>
       </c>
-      <c r="Y11" s="1">
-        <f t="shared" si="10"/>
+      <c r="Y11" s="2">
+        <f t="shared" si="12"/>
         <v>3.0760891979038725</v>
       </c>
-      <c r="Z11" s="1">
-        <f t="shared" si="10"/>
+      <c r="Z11" s="2">
+        <f t="shared" si="12"/>
         <v>4.0231214188992608</v>
       </c>
-      <c r="AA11" s="1">
-        <f t="shared" si="10"/>
+      <c r="AA11" s="2">
+        <f t="shared" si="12"/>
         <v>5.0741516971933871</v>
       </c>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
-      <c r="BE11" s="1"/>
-      <c r="BF11" s="1"/>
-      <c r="BG11" s="1"/>
-      <c r="BH11" s="1"/>
-      <c r="BI11" s="1"/>
-      <c r="BJ11" s="1"/>
-      <c r="BK11" s="1"/>
-      <c r="BL11" s="1"/>
-      <c r="BM11" s="1"/>
-    </row>
-    <row r="12" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12" t="s">
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2"/>
+      <c r="BK11" s="2"/>
+      <c r="BL11" s="2"/>
+      <c r="BM11" s="2"/>
+    </row>
+    <row r="12" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3">
-        <f>+C10+C11</f>
+      <c r="C12" s="7">
+        <f t="shared" ref="C12:K12" si="13">+C10+C11</f>
         <v>0.78999999999999859</v>
       </c>
-      <c r="D12" s="3">
-        <f>+D10+D11</f>
+      <c r="D12" s="7">
+        <f t="shared" si="13"/>
         <v>2.2890000000000024</v>
       </c>
-      <c r="E12" s="3">
-        <f>+E10+E11</f>
+      <c r="E12" s="7">
+        <f t="shared" si="13"/>
         <v>3.7160000000000002</v>
       </c>
-      <c r="F12" s="3">
-        <f>+F10+F11</f>
+      <c r="F12" s="7">
+        <f t="shared" si="13"/>
         <v>13.974000000000004</v>
       </c>
-      <c r="G12" s="3">
-        <f>+G10+G11</f>
+      <c r="G12" s="7">
+        <f t="shared" si="13"/>
         <v>1.1430000000000007</v>
       </c>
-      <c r="H12" s="3">
-        <f>+H10+H11</f>
+      <c r="H12" s="7">
+        <f t="shared" si="13"/>
         <v>1.7810000000000015</v>
       </c>
-      <c r="I12" s="3">
-        <f>+I10+I11</f>
+      <c r="I12" s="7">
+        <f t="shared" si="13"/>
         <v>5.0189999999999984</v>
       </c>
-      <c r="J12" s="3">
-        <f>+J10+J11</f>
+      <c r="J12" s="7">
+        <f t="shared" si="13"/>
         <v>14.19399999999999</v>
       </c>
-      <c r="K12" s="2">
-        <f>+K10+K11</f>
+      <c r="K12" s="6">
+        <f t="shared" si="13"/>
         <v>1.4209999999999967</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="2">
         <f>+R10+R11</f>
         <v>16.090000000000003</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="2">
         <f>+S10+S11</f>
         <v>18.516000000000009</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="2">
         <f>+T10+T11</f>
         <v>20.769000000000013</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="2">
         <f>+U10+U11</f>
         <v>22.137000000000011</v>
       </c>
-      <c r="V12" s="1">
-        <f t="shared" ref="V12:AD12" si="11">+V10+V11</f>
+      <c r="V12" s="2">
+        <f t="shared" ref="V12:AA12" si="14">+V10+V11</f>
         <v>24.304136000000003</v>
       </c>
-      <c r="W12" s="1">
-        <f t="shared" si="11"/>
+      <c r="W12" s="2">
+        <f t="shared" si="14"/>
         <v>27.337261408000003</v>
       </c>
-      <c r="X12" s="1">
-        <f t="shared" si="11"/>
+      <c r="X12" s="2">
+        <f t="shared" si="14"/>
         <v>30.431788231424004</v>
       </c>
-      <c r="Y12" s="1">
-        <f t="shared" si="11"/>
+      <c r="Y12" s="2">
+        <f t="shared" si="14"/>
         <v>33.822579321263873</v>
       </c>
-      <c r="Z12" s="1">
-        <f t="shared" si="11"/>
+      <c r="Z12" s="2">
+        <f t="shared" si="14"/>
         <v>37.536795653361665</v>
       </c>
-      <c r="AA12" s="1">
-        <f t="shared" si="11"/>
+      <c r="AA12" s="2">
+        <f t="shared" si="14"/>
         <v>41.268919870412788</v>
       </c>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="1"/>
-      <c r="BF12" s="1"/>
-      <c r="BG12" s="1"/>
-      <c r="BH12" s="1"/>
-      <c r="BI12" s="1"/>
-      <c r="BJ12" s="1"/>
-      <c r="BK12" s="1"/>
-      <c r="BL12" s="1"/>
-      <c r="BM12" s="1"/>
-    </row>
-    <row r="13" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13" t="s">
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="2"/>
+      <c r="BM12" s="2"/>
+    </row>
+    <row r="13" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="6">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="6">
         <v>-0.35499999999999998</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="6">
         <v>0.26800000000000002</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="6">
         <f>-5.044-E13-D13-C13</f>
         <v>-4.911999999999999</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="6">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="6">
         <v>-9.5000000000000001E-2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="6">
         <v>-8.7999999999999995E-2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="6">
         <f>-5.256-I13-H13-G13</f>
         <v>-5.0690000000000008</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="6">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="2">
         <f>-1.63-2.577</f>
         <v>-4.2069999999999999</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="2">
         <f>-2.511-2.082</f>
         <v>-4.593</v>
       </c>
-      <c r="T13" s="10">
-        <f t="shared" si="9"/>
+      <c r="T13" s="2">
+        <f t="shared" si="11"/>
         <v>-5.0439999999999987</v>
       </c>
-      <c r="U13" s="10">
+      <c r="U13" s="2">
         <f>+SUM(G13:J13)</f>
         <v>-5.2560000000000011</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="2">
         <f>+V12*-0.3</f>
         <v>-7.2912408000000006</v>
       </c>
-      <c r="W13" s="1">
-        <f t="shared" ref="W13:AD13" si="12">+W12*-0.3</f>
+      <c r="W13" s="2">
+        <f t="shared" ref="W13:AA13" si="15">+W12*-0.3</f>
         <v>-8.2011784223999999</v>
       </c>
-      <c r="X13" s="1">
-        <f t="shared" si="12"/>
+      <c r="X13" s="2">
+        <f t="shared" si="15"/>
         <v>-9.129536469427201</v>
       </c>
-      <c r="Y13" s="1">
-        <f t="shared" si="12"/>
+      <c r="Y13" s="2">
+        <f t="shared" si="15"/>
         <v>-10.146773796379161</v>
       </c>
-      <c r="Z13" s="1">
-        <f t="shared" si="12"/>
+      <c r="Z13" s="2">
+        <f t="shared" si="15"/>
         <v>-11.2610386960085</v>
       </c>
-      <c r="AA13" s="1">
-        <f t="shared" si="12"/>
+      <c r="AA13" s="2">
+        <f t="shared" si="15"/>
         <v>-12.380675961123837</v>
       </c>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="1"/>
-      <c r="BI13" s="1"/>
-      <c r="BJ13" s="1"/>
-      <c r="BK13" s="1"/>
-      <c r="BL13" s="1"/>
-      <c r="BM13" s="1"/>
-    </row>
-    <row r="14" spans="1:65" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
+      <c r="BM13" s="2"/>
+    </row>
+    <row r="14" spans="1:65" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="8">
-        <f>+C12+C13</f>
+        <f t="shared" ref="C14:K14" si="16">+C12+C13</f>
         <v>0.74499999999999855</v>
       </c>
       <c r="D14" s="8">
-        <f>+D12+D13</f>
+        <f t="shared" si="16"/>
         <v>1.9340000000000024</v>
       </c>
       <c r="E14" s="8">
-        <f>+E12+E13</f>
+        <f t="shared" si="16"/>
         <v>3.984</v>
       </c>
       <c r="F14" s="8">
-        <f>+F12+F13</f>
+        <f t="shared" si="16"/>
         <v>9.0620000000000047</v>
       </c>
       <c r="G14" s="8">
-        <f>+G12+G13</f>
+        <f t="shared" si="16"/>
         <v>1.1390000000000007</v>
       </c>
       <c r="H14" s="8">
-        <f>+H12+H13</f>
+        <f t="shared" si="16"/>
         <v>1.6860000000000015</v>
       </c>
       <c r="I14" s="8">
-        <f>+I12+I13</f>
+        <f t="shared" si="16"/>
         <v>4.9309999999999983</v>
       </c>
       <c r="J14" s="8">
-        <f>+J12+J13</f>
+        <f t="shared" si="16"/>
         <v>9.1249999999999893</v>
       </c>
-      <c r="K14" s="7">
-        <f>+K12+K13</f>
+      <c r="K14" s="4">
+        <f t="shared" si="16"/>
         <v>1.3509999999999966</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="5">
         <f>+R12+R13</f>
         <v>11.883000000000003</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="5">
         <f>+S12+S13</f>
         <v>13.923000000000009</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="5">
         <f>+T12+T13</f>
         <v>15.725000000000014</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="5">
         <f>+U12+U13</f>
         <v>16.881000000000011</v>
       </c>
-      <c r="V14" s="9">
-        <f t="shared" ref="V14:AD14" si="13">+V12+V13</f>
+      <c r="V14" s="5">
+        <f t="shared" ref="V14:AA14" si="17">+V12+V13</f>
         <v>17.012895200000003</v>
       </c>
-      <c r="W14" s="9">
-        <f t="shared" si="13"/>
+      <c r="W14" s="5">
+        <f t="shared" si="17"/>
         <v>19.136082985600005</v>
       </c>
-      <c r="X14" s="9">
-        <f t="shared" si="13"/>
+      <c r="X14" s="5">
+        <f t="shared" si="17"/>
         <v>21.302251761996803</v>
       </c>
-      <c r="Y14" s="9">
-        <f t="shared" si="13"/>
+      <c r="Y14" s="5">
+        <f t="shared" si="17"/>
         <v>23.675805524884712</v>
       </c>
-      <c r="Z14" s="9">
-        <f t="shared" si="13"/>
+      <c r="Z14" s="5">
+        <f t="shared" si="17"/>
         <v>26.275756957353167</v>
       </c>
-      <c r="AA14" s="9">
-        <f t="shared" si="13"/>
+      <c r="AA14" s="5">
+        <f t="shared" si="17"/>
         <v>28.888243909288953</v>
       </c>
-      <c r="AB14" s="9">
+      <c r="AB14" s="5">
         <f>+AA14*0.99</f>
         <v>28.599361470196062</v>
       </c>
-      <c r="AC14" s="9">
-        <f t="shared" ref="AC14:BG14" si="14">+AB14*0.99</f>
+      <c r="AC14" s="5">
+        <f t="shared" ref="AC14:BG14" si="18">+AB14*0.99</f>
         <v>28.3133678554941</v>
       </c>
-      <c r="AD14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AD14" s="5">
+        <f t="shared" si="18"/>
         <v>28.03023417693916</v>
       </c>
-      <c r="AE14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AE14" s="5">
+        <f t="shared" si="18"/>
         <v>27.749931835169768</v>
       </c>
-      <c r="AF14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AF14" s="5">
+        <f t="shared" si="18"/>
         <v>27.472432516818071</v>
       </c>
-      <c r="AG14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AG14" s="5">
+        <f t="shared" si="18"/>
         <v>27.197708191649891</v>
       </c>
-      <c r="AH14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AH14" s="5">
+        <f t="shared" si="18"/>
         <v>26.925731109733391</v>
       </c>
-      <c r="AI14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AI14" s="5">
+        <f t="shared" si="18"/>
         <v>26.656473798636057</v>
       </c>
-      <c r="AJ14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AJ14" s="5">
+        <f t="shared" si="18"/>
         <v>26.389909060649696</v>
       </c>
-      <c r="AK14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AK14" s="5">
+        <f t="shared" si="18"/>
         <v>26.126009970043199</v>
       </c>
-      <c r="AL14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AL14" s="5">
+        <f t="shared" si="18"/>
         <v>25.864749870342767</v>
       </c>
-      <c r="AM14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AM14" s="5">
+        <f t="shared" si="18"/>
         <v>25.606102371639338</v>
       </c>
-      <c r="AN14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AN14" s="5">
+        <f t="shared" si="18"/>
         <v>25.350041347922943</v>
       </c>
-      <c r="AO14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AO14" s="5">
+        <f t="shared" si="18"/>
         <v>25.096540934443713</v>
       </c>
-      <c r="AP14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AP14" s="5">
+        <f t="shared" si="18"/>
         <v>24.845575525099274</v>
       </c>
-      <c r="AQ14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AQ14" s="5">
+        <f t="shared" si="18"/>
         <v>24.59711976984828</v>
       </c>
-      <c r="AR14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AR14" s="5">
+        <f t="shared" si="18"/>
         <v>24.351148572149796</v>
       </c>
-      <c r="AS14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AS14" s="5">
+        <f t="shared" si="18"/>
         <v>24.107637086428298</v>
       </c>
-      <c r="AT14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AT14" s="5">
+        <f t="shared" si="18"/>
         <v>23.866560715564013</v>
       </c>
-      <c r="AU14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AU14" s="5">
+        <f t="shared" si="18"/>
         <v>23.627895108408374</v>
       </c>
-      <c r="AV14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AV14" s="5">
+        <f t="shared" si="18"/>
         <v>23.39161615732429</v>
       </c>
-      <c r="AW14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AW14" s="5">
+        <f t="shared" si="18"/>
         <v>23.157699995751045</v>
       </c>
-      <c r="AX14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AX14" s="5">
+        <f t="shared" si="18"/>
         <v>22.926122995793534</v>
       </c>
-      <c r="AY14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AY14" s="5">
+        <f t="shared" si="18"/>
         <v>22.6968617658356</v>
       </c>
-      <c r="AZ14" s="9">
-        <f t="shared" si="14"/>
+      <c r="AZ14" s="5">
+        <f t="shared" si="18"/>
         <v>22.469893148177242</v>
       </c>
-      <c r="BA14" s="9">
-        <f t="shared" si="14"/>
+      <c r="BA14" s="5">
+        <f t="shared" si="18"/>
         <v>22.24519421669547</v>
       </c>
-      <c r="BB14" s="9">
-        <f t="shared" si="14"/>
+      <c r="BB14" s="5">
+        <f t="shared" si="18"/>
         <v>22.022742274528515</v>
       </c>
-      <c r="BC14" s="9">
-        <f t="shared" si="14"/>
+      <c r="BC14" s="5">
+        <f t="shared" si="18"/>
         <v>21.802514851783229</v>
       </c>
-      <c r="BD14" s="9">
-        <f t="shared" si="14"/>
+      <c r="BD14" s="5">
+        <f t="shared" si="18"/>
         <v>21.584489703265398</v>
       </c>
-      <c r="BE14" s="9">
-        <f t="shared" si="14"/>
+      <c r="BE14" s="5">
+        <f t="shared" si="18"/>
         <v>21.368644806232744</v>
       </c>
-      <c r="BF14" s="9">
-        <f t="shared" si="14"/>
+      <c r="BF14" s="5">
+        <f t="shared" si="18"/>
         <v>21.154958358170418</v>
       </c>
-      <c r="BG14" s="9">
-        <f t="shared" si="14"/>
+      <c r="BG14" s="5">
+        <f t="shared" si="18"/>
         <v>20.943408774588715</v>
       </c>
-      <c r="BH14" s="9"/>
-      <c r="BI14" s="9"/>
-      <c r="BJ14" s="9"/>
-      <c r="BK14" s="9"/>
-      <c r="BL14" s="9"/>
-      <c r="BM14" s="9"/>
-    </row>
-    <row r="15" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15" t="s">
+      <c r="BH14" s="5"/>
+      <c r="BI14" s="5"/>
+      <c r="BJ14" s="5"/>
+      <c r="BK14" s="5"/>
+      <c r="BL14" s="5"/>
+      <c r="BM14" s="5"/>
+    </row>
+    <row r="15" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2">
-        <f>+C14/C16</f>
+      <c r="C15" s="6">
+        <f t="shared" ref="C15:K15" si="19">+C14/C16</f>
         <v>4.259820458573952E-2</v>
       </c>
-      <c r="D15" s="2">
-        <f>+D14/D16</f>
+      <c r="D15" s="6">
+        <f t="shared" si="19"/>
         <v>0.11000511916273263</v>
       </c>
-      <c r="E15" s="2">
-        <f>+E14/E16</f>
+      <c r="E15" s="6">
+        <f t="shared" si="19"/>
         <v>0.22660827029179229</v>
       </c>
-      <c r="F15" s="2">
-        <f>+F14/F16</f>
+      <c r="F15" s="6">
+        <f t="shared" si="19"/>
         <v>0.51635327635327655</v>
       </c>
-      <c r="G15" s="2">
-        <f>+G14/G16</f>
+      <c r="G15" s="6">
+        <f t="shared" si="19"/>
         <v>6.5433446314701021E-2</v>
       </c>
-      <c r="H15" s="2">
-        <f>+H14/H16</f>
+      <c r="H15" s="6">
+        <f t="shared" si="19"/>
         <v>9.672977624784862E-2</v>
       </c>
-      <c r="I15" s="2">
-        <f>+I14/I16</f>
+      <c r="I15" s="6">
+        <f t="shared" si="19"/>
         <v>0.28303294684881175</v>
       </c>
-      <c r="J15" s="2">
-        <f>+J14/J16</f>
+      <c r="J15" s="6">
+        <f t="shared" si="19"/>
         <v>0.51994301994301928</v>
       </c>
-      <c r="K15" s="2">
-        <f>+K14/K16</f>
+      <c r="K15" s="6">
+        <f t="shared" si="19"/>
         <v>7.8223611834867493E-2</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="2">
         <f>+R14/R16</f>
         <v>0.67643877725280366</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="2">
         <f>+S14/S16</f>
         <v>0.79605488850771933</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="2">
         <f>+T14/T16</f>
         <v>0.89601139601139679</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="2">
         <f>+U14/U16</f>
         <v>0.97017241379310415</v>
       </c>
-      <c r="V15" s="1">
-        <f t="shared" ref="V15:AD15" si="15">+V14/V16</f>
+      <c r="V15" s="2">
+        <f t="shared" ref="V15:AA15" si="20">+V14/V16</f>
         <v>0.97775259770114964</v>
       </c>
-      <c r="W15" s="1">
-        <f t="shared" si="15"/>
+      <c r="W15" s="2">
+        <f t="shared" si="20"/>
         <v>1.0997748842298853</v>
       </c>
-      <c r="X15" s="1">
-        <f t="shared" si="15"/>
+      <c r="X15" s="2">
+        <f t="shared" si="20"/>
         <v>1.2242673426434945</v>
       </c>
-      <c r="Y15" s="1">
-        <f t="shared" si="15"/>
+      <c r="Y15" s="2">
+        <f t="shared" si="20"/>
         <v>1.3606784784416501</v>
       </c>
-      <c r="Z15" s="1">
-        <f t="shared" si="15"/>
+      <c r="Z15" s="2">
+        <f t="shared" si="20"/>
         <v>1.5101009745605269</v>
       </c>
-      <c r="AA15" s="1">
-        <f t="shared" si="15"/>
+      <c r="AA15" s="2">
+        <f t="shared" si="20"/>
         <v>1.6602439028326985</v>
       </c>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="1"/>
-      <c r="BG15" s="1"/>
-      <c r="BH15" s="1"/>
-      <c r="BI15" s="1"/>
-      <c r="BJ15" s="1"/>
-      <c r="BK15" s="1"/>
-      <c r="BL15" s="1"/>
-      <c r="BM15" s="1"/>
-    </row>
-    <row r="16" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16" t="s">
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="2"/>
+      <c r="BL15" s="2"/>
+      <c r="BM15" s="2"/>
+    </row>
+    <row r="16" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="6">
         <v>17.489000000000001</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="6">
         <v>17.581</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="6">
         <v>17.581</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="6">
         <v>17.55</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="6">
         <v>17.407</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="6">
         <v>17.43</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="6">
         <v>17.422000000000001</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="6">
         <v>17.55</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="6">
         <v>17.271000000000001</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="2">
         <v>17.567</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="2">
         <v>17.489999999999998</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="2">
         <v>17.55</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="2">
         <v>17.399999999999999</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="2">
         <f>+U16</f>
         <v>17.399999999999999</v>
       </c>
-      <c r="W16" s="1">
-        <f t="shared" ref="W16:AD16" si="16">+V16</f>
+      <c r="W16" s="2">
+        <f t="shared" ref="W16:AA16" si="21">+V16</f>
         <v>17.399999999999999</v>
       </c>
-      <c r="X16" s="1">
-        <f t="shared" si="16"/>
+      <c r="X16" s="2">
+        <f t="shared" si="21"/>
         <v>17.399999999999999</v>
       </c>
-      <c r="Y16" s="1">
-        <f t="shared" si="16"/>
+      <c r="Y16" s="2">
+        <f t="shared" si="21"/>
         <v>17.399999999999999</v>
       </c>
-      <c r="Z16" s="1">
-        <f t="shared" si="16"/>
+      <c r="Z16" s="2">
+        <f t="shared" si="21"/>
         <v>17.399999999999999</v>
       </c>
-      <c r="AA16" s="1">
-        <f t="shared" si="16"/>
+      <c r="AA16" s="2">
+        <f t="shared" si="21"/>
         <v>17.399999999999999</v>
       </c>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
-      <c r="AU16" s="1"/>
-      <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="1"/>
-      <c r="BF16" s="1"/>
-      <c r="BG16" s="1"/>
-      <c r="BH16" s="1"/>
-      <c r="BI16" s="1"/>
-      <c r="BJ16" s="1"/>
-      <c r="BK16" s="1"/>
-      <c r="BL16" s="1"/>
-      <c r="BM16" s="1"/>
-    </row>
-    <row r="17" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1">
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
+      <c r="BJ16" s="2"/>
+      <c r="BK16" s="2"/>
+      <c r="BL16" s="2"/>
+      <c r="BM16" s="2"/>
+    </row>
+    <row r="17" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2">
         <v>-2000</v>
       </c>
-      <c r="W17" s="1">
+      <c r="W17" s="2">
         <v>19000</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X17" s="2">
         <v>21000</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Y17" s="2">
         <v>24000</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="Z17" s="2">
         <v>26000</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AA17" s="2">
         <v>29000</v>
       </c>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="1"/>
-      <c r="AR17" s="1"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="1"/>
-      <c r="AU17" s="1"/>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
-      <c r="AZ17" s="1"/>
-      <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
-      <c r="BC17" s="1"/>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="1"/>
-      <c r="BF17" s="1"/>
-      <c r="BG17" s="1"/>
-      <c r="BH17" s="1"/>
-      <c r="BI17" s="1"/>
-      <c r="BJ17" s="1"/>
-      <c r="BK17" s="1"/>
-      <c r="BL17" s="1"/>
-      <c r="BM17" s="1"/>
-    </row>
-    <row r="18" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18" t="s">
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="2"/>
+      <c r="BM17" s="2"/>
+    </row>
+    <row r="18" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1">
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2">
         <f>+main!L8/model!V12</f>
         <v>14.60692945431181</v>
       </c>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1">
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2">
         <f>(AA19-AA28)/AA12</f>
         <v>9.620224793732687</v>
       </c>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
-      <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
-      <c r="AU18" s="1"/>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="1"/>
-      <c r="AZ18" s="1"/>
-      <c r="BA18" s="1"/>
-      <c r="BB18" s="1"/>
-      <c r="BC18" s="1"/>
-      <c r="BD18" s="1"/>
-      <c r="BE18" s="1"/>
-      <c r="BF18" s="1"/>
-      <c r="BG18" s="1"/>
-      <c r="BH18" s="1"/>
-      <c r="BI18" s="1"/>
-      <c r="BJ18" s="1"/>
-      <c r="BK18" s="1"/>
-      <c r="BL18" s="1"/>
-      <c r="BM18" s="1"/>
-    </row>
-    <row r="19" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19" t="s">
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+    </row>
+    <row r="19" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1">
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2">
         <f>+main!L8</f>
         <v>355.00880000000006</v>
       </c>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1">
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2">
         <f>+NPV(0.009,AA14:BG14)-AA28</f>
         <v>552.75832248703625</v>
       </c>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="1"/>
-      <c r="AU19" s="1"/>
-      <c r="AV19" s="1"/>
-      <c r="AW19" s="1"/>
-      <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
-      <c r="AZ19" s="1"/>
-      <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="1"/>
-      <c r="BE19" s="1"/>
-      <c r="BF19" s="1"/>
-      <c r="BG19" s="1"/>
-      <c r="BH19" s="1"/>
-      <c r="BI19" s="1"/>
-      <c r="BJ19" s="1"/>
-      <c r="BK19" s="1"/>
-      <c r="BL19" s="1"/>
-      <c r="BM19" s="1"/>
-    </row>
-    <row r="20" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20" t="s">
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+    </row>
+    <row r="20" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1">
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2">
         <f>+IRR(V17:AA17)</f>
         <v>9.6084413944736582</v>
       </c>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1" t="s">
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="1"/>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="1"/>
-      <c r="AR20" s="1"/>
-      <c r="AS20" s="1"/>
-      <c r="AT20" s="1"/>
-      <c r="AU20" s="1"/>
-      <c r="AV20" s="1"/>
-      <c r="AW20" s="1"/>
-      <c r="AX20" s="1"/>
-      <c r="AY20" s="1"/>
-      <c r="AZ20" s="1"/>
-      <c r="BA20" s="1"/>
-      <c r="BB20" s="1"/>
-      <c r="BC20" s="1"/>
-      <c r="BD20" s="1"/>
-      <c r="BE20" s="1"/>
-      <c r="BF20" s="1"/>
-      <c r="BG20" s="1"/>
-      <c r="BH20" s="1"/>
-      <c r="BI20" s="1"/>
-      <c r="BJ20" s="1"/>
-      <c r="BK20" s="1"/>
-      <c r="BL20" s="1"/>
-      <c r="BM20" s="1"/>
-    </row>
-    <row r="21" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22" t="s">
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
+    </row>
+    <row r="21" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="R22" s="4" t="s">
+      <c r="K22" s="9"/>
+      <c r="R22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="9">
         <f>+S3/R3-1</f>
         <v>0.10059873255316654</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="9">
         <f>+T3/S3-1</f>
         <v>8.1759895437766072E-2</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="9">
         <f>+U3/T3-1</f>
         <v>9.1263102896515624E-2</v>
       </c>
-      <c r="V22" s="4">
-        <f t="shared" ref="V22:AD22" si="17">+V3/U3-1</f>
+      <c r="V22" s="9">
+        <f t="shared" ref="V22:AA22" si="22">+V3/U3-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="W22" s="4">
-        <f t="shared" si="17"/>
+      <c r="W22" s="9">
+        <f t="shared" si="22"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="X22" s="4">
-        <f t="shared" si="17"/>
+      <c r="X22" s="9">
+        <f t="shared" si="22"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="Y22" s="4">
-        <f t="shared" si="17"/>
+      <c r="Y22" s="9">
+        <f t="shared" si="22"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="Z22" s="4">
-        <f t="shared" si="17"/>
+      <c r="Z22" s="9">
+        <f t="shared" si="22"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="AA22" s="4">
-        <f t="shared" si="17"/>
+      <c r="AA22" s="9">
+        <f t="shared" si="22"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-    </row>
-    <row r="23" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23" t="s">
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+    </row>
+    <row r="23" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="R23" s="4">
+      <c r="K23" s="9"/>
+      <c r="R23" s="9">
         <f>+R6/R3</f>
         <v>0.73654795692235908</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="9">
         <f>+S6/S3</f>
         <v>0.79983927089036866</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="9">
         <f>+T6/T3</f>
         <v>0.82560493746530395</v>
       </c>
-      <c r="U23" s="4">
+      <c r="U23" s="9">
         <f>+U6/U3</f>
         <v>0.84827673915808222</v>
       </c>
-      <c r="V23" s="4">
-        <f t="shared" ref="V23:AD23" si="18">+V6/V3</f>
+      <c r="V23" s="9">
+        <f t="shared" ref="V23:AA23" si="23">+V6/V3</f>
         <v>0.85</v>
       </c>
-      <c r="W23" s="4">
-        <f t="shared" si="18"/>
+      <c r="W23" s="9">
+        <f t="shared" si="23"/>
         <v>0.85</v>
       </c>
-      <c r="X23" s="4">
-        <f t="shared" si="18"/>
+      <c r="X23" s="9">
+        <f t="shared" si="23"/>
         <v>0.85</v>
       </c>
-      <c r="Y23" s="4">
-        <f t="shared" si="18"/>
+      <c r="Y23" s="9">
+        <f t="shared" si="23"/>
         <v>0.85</v>
       </c>
-      <c r="Z23" s="4">
-        <f t="shared" si="18"/>
+      <c r="Z23" s="9">
+        <f t="shared" si="23"/>
         <v>0.85</v>
       </c>
-      <c r="AA23" s="4">
-        <f t="shared" si="18"/>
+      <c r="AA23" s="9">
+        <f t="shared" si="23"/>
         <v>0.85</v>
       </c>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-    </row>
-    <row r="24" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24" t="s">
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+    </row>
+    <row r="24" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="R24" s="4">
+      <c r="K24" s="9"/>
+      <c r="R24" s="9">
         <f>+R10/R3</f>
         <v>0.15985964775864084</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="9">
         <f>+S10/S3</f>
         <v>0.16510058816256609</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="9">
         <f>+T10/T3</f>
         <v>0.16577409136923235</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="9">
         <f>+U10/U3</f>
         <v>0.16224162308952586</v>
       </c>
-      <c r="V24" s="4">
-        <f t="shared" ref="V24:AD24" si="19">+V10/V3</f>
+      <c r="V24" s="9">
+        <f t="shared" ref="V24:AA24" si="24">+V10/V3</f>
         <v>0.16</v>
       </c>
-      <c r="W24" s="4">
-        <f t="shared" si="19"/>
+      <c r="W24" s="9">
+        <f t="shared" si="24"/>
         <v>0.16</v>
       </c>
-      <c r="X24" s="4">
-        <f t="shared" si="19"/>
+      <c r="X24" s="9">
+        <f t="shared" si="24"/>
         <v>0.16</v>
       </c>
-      <c r="Y24" s="4">
-        <f t="shared" si="19"/>
+      <c r="Y24" s="9">
+        <f t="shared" si="24"/>
         <v>0.16</v>
       </c>
-      <c r="Z24" s="4">
-        <f t="shared" si="19"/>
+      <c r="Z24" s="9">
+        <f t="shared" si="24"/>
         <v>0.16</v>
       </c>
-      <c r="AA24" s="4">
-        <f t="shared" si="19"/>
+      <c r="AA24" s="9">
+        <f t="shared" si="24"/>
         <v>0.16</v>
       </c>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-    </row>
-    <row r="25" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25" t="s">
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+    </row>
+    <row r="25" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="R25" s="4">
-        <f t="shared" ref="R25:U25" si="20">+R13/R12</f>
+      <c r="K25" s="9"/>
+      <c r="R25" s="9">
+        <f t="shared" ref="R25:T25" si="25">+R13/R12</f>
         <v>-0.26146674953387189</v>
       </c>
-      <c r="S25" s="4">
-        <f t="shared" si="20"/>
+      <c r="S25" s="9">
+        <f t="shared" si="25"/>
         <v>-0.24805573558003877</v>
       </c>
-      <c r="T25" s="4">
-        <f t="shared" si="20"/>
+      <c r="T25" s="9">
+        <f t="shared" si="25"/>
         <v>-0.24286195772545599</v>
       </c>
-      <c r="U25" s="4">
+      <c r="U25" s="9">
         <f>+U13/U12</f>
         <v>-0.23743054614446396</v>
       </c>
-      <c r="V25" s="4">
-        <f t="shared" ref="V25:AD25" si="21">+V13/V12</f>
+      <c r="V25" s="9">
+        <f t="shared" ref="V25:AA25" si="26">+V13/V12</f>
         <v>-0.3</v>
       </c>
-      <c r="W25" s="4">
-        <f t="shared" si="21"/>
+      <c r="W25" s="9">
+        <f t="shared" si="26"/>
         <v>-0.29999999999999993</v>
       </c>
-      <c r="X25" s="4">
-        <f t="shared" si="21"/>
+      <c r="X25" s="9">
+        <f t="shared" si="26"/>
         <v>-0.3</v>
       </c>
-      <c r="Y25" s="4">
-        <f t="shared" si="21"/>
+      <c r="Y25" s="9">
+        <f t="shared" si="26"/>
         <v>-0.3</v>
       </c>
-      <c r="Z25" s="4">
-        <f t="shared" si="21"/>
+      <c r="Z25" s="9">
+        <f t="shared" si="26"/>
         <v>-0.3</v>
       </c>
-      <c r="AA25" s="4">
-        <f t="shared" si="21"/>
+      <c r="AA25" s="9">
+        <f t="shared" si="26"/>
         <v>-0.3</v>
       </c>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-    </row>
-    <row r="26" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26" t="s">
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+    </row>
+    <row r="26" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="R26" s="4" t="s">
+      <c r="K26" s="9"/>
+      <c r="R26" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26" s="9">
         <f>+S14/R14-1</f>
         <v>0.17167381974248985</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="9">
         <f>+T14/S14-1</f>
         <v>0.12942612942612963</v>
       </c>
-      <c r="U26" s="4">
+      <c r="U26" s="9">
         <f>+U14/T14-1</f>
         <v>7.3513513513513207E-2</v>
       </c>
-      <c r="V26" s="4">
-        <f t="shared" ref="V26:AD26" si="22">+V14/U14-1</f>
+      <c r="V26" s="9">
+        <f t="shared" ref="V26:AA26" si="27">+V14/U14-1</f>
         <v>7.8132338131622348E-3</v>
       </c>
-      <c r="W26" s="4">
-        <f t="shared" si="22"/>
+      <c r="W26" s="9">
+        <f t="shared" si="27"/>
         <v>0.12479873417429865</v>
       </c>
-      <c r="X26" s="4">
-        <f t="shared" si="22"/>
+      <c r="X26" s="9">
+        <f t="shared" si="27"/>
         <v>0.11319812827039111</v>
       </c>
-      <c r="Y26" s="4">
-        <f t="shared" si="22"/>
+      <c r="Y26" s="9">
+        <f t="shared" si="27"/>
         <v>0.11142266974434722</v>
       </c>
-      <c r="Z26" s="4">
-        <f t="shared" si="22"/>
+      <c r="Z26" s="9">
+        <f t="shared" si="27"/>
         <v>0.10981469795127974</v>
       </c>
-      <c r="AA26" s="4">
-        <f t="shared" si="22"/>
+      <c r="AA26" s="9">
+        <f t="shared" si="27"/>
         <v>9.9425754172409953E-2</v>
       </c>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-    </row>
-    <row r="27" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+    </row>
+    <row r="27" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:65" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="3">
         <f>+K29-K42</f>
         <v>21.498999999999999</v>
       </c>
-      <c r="T28" s="6">
+      <c r="T28" s="3">
         <f>25.397-1.517</f>
         <v>23.88</v>
       </c>
-      <c r="U28" s="6">
+      <c r="U28" s="3">
         <f>21.089-1.638</f>
         <v>19.451000000000001</v>
       </c>
-      <c r="V28" s="7">
+      <c r="V28" s="4">
         <f>+U28+V14</f>
         <v>36.463895200000003</v>
       </c>
-      <c r="W28" s="7">
-        <f t="shared" ref="W28:AD28" si="23">+V28+W14</f>
+      <c r="W28" s="4">
+        <f t="shared" ref="W28:AD28" si="28">+V28+W14</f>
         <v>55.599978185600008</v>
       </c>
-      <c r="X28" s="7">
-        <f t="shared" si="23"/>
+      <c r="X28" s="4">
+        <f t="shared" si="28"/>
         <v>76.902229947596808</v>
       </c>
-      <c r="Y28" s="7">
-        <f t="shared" si="23"/>
+      <c r="Y28" s="4">
+        <f t="shared" si="28"/>
         <v>100.57803547248152</v>
       </c>
-      <c r="Z28" s="7">
-        <f t="shared" si="23"/>
+      <c r="Z28" s="4">
+        <f t="shared" si="28"/>
         <v>126.85379242983468</v>
       </c>
-      <c r="AA28" s="7">
-        <f t="shared" si="23"/>
+      <c r="AA28" s="4">
+        <f t="shared" si="28"/>
         <v>155.74203633912364</v>
       </c>
-      <c r="AB28" s="7">
-        <f t="shared" si="23"/>
+      <c r="AB28" s="4">
+        <f t="shared" si="28"/>
         <v>184.34139780931972</v>
       </c>
-      <c r="AC28" s="7">
-        <f t="shared" si="23"/>
+      <c r="AC28" s="4">
+        <f t="shared" si="28"/>
         <v>212.65476566481382</v>
       </c>
-      <c r="AD28" s="7">
-        <f t="shared" si="23"/>
+      <c r="AD28" s="4">
+        <f t="shared" si="28"/>
         <v>240.68499984175298</v>
       </c>
     </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <v>23.187999999999999</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <f>25.895+0.301</f>
         <v>26.195999999999998</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <v>38.991999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1">
         <v>14.013999999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="1">
         <v>5.3289999999999997</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <v>1.6539999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="1">
         <v>6.0960000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="1">
         <v>1.982</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <f>6.776+19.163</f>
         <v>25.939</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="1">
         <v>19.225999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="1">
         <v>3.0209999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="1">
         <f>+SUM(K29:K39)</f>
         <v>165.63699999999997</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="1">
         <v>1.6890000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="1">
         <v>2.8010000000000002</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="1">
         <v>27.074000000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="1">
         <v>2.331</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="1">
         <v>9.5210000000000008</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="1">
         <f>0.652+12.882</f>
         <v>13.533999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="1">
         <v>18.709</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="1">
         <v>3.13</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="1">
         <f>+SUM(K42:K50)</f>
         <v>80.388999999999996</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="1">
         <f>+K40-K48</f>
         <v>146.92799999999997</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="1">
         <f>+K48+K53</f>
         <v>165.63699999999997</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="10">
         <f>+K14/K40</f>
         <v>8.1563901785228956E-3</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57" s="10">
         <f>+K14/K53</f>
         <v>9.1949798540781665E-3</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="1">
         <v>7.83</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="1">
         <v>3.2120000000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="1">
         <v>-0.34499999999999997</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="1">
         <v>-0.109</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="1">
         <v>-1.8440000000000001</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="1">
         <v>-1.004</v>
       </c>
     </row>
-    <row r="62" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G62" s="6">
+    <row r="62" spans="2:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" s="3">
         <f>+G61+G60+G59</f>
         <v>5.641</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="3">
         <f>+K61+K60+K59</f>
         <v>2.0990000000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>6</v>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
